--- a/dataset/soc_model/raw/sd820.xlsx
+++ b/dataset/soc_model/raw/sd820.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01383ecf35bd01d1/proj/wipe-v2/wipe-v2/dataset/soc_model/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc9559\OneDrive\proj\wipe-v2\wipe-v2\dataset\soc_model\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{210A0142-C9F9-4A30-939D-1B7FEB74563A}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sd820" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -3082,16 +3090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3122,12 +3130,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3135,16 +3143,16 @@
         <v>307</v>
       </c>
       <c r="D4" s="1">
-        <v>92.4</v>
+        <v>110.88000000000001</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <f>0.8*D4</f>
-        <v>73.92</v>
+        <v>88.704000000000008</v>
       </c>
       <c r="G4" s="1">
         <f>0.2*D4</f>
-        <v>18.48</v>
+        <v>22.176000000000002</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -3153,8 +3161,12 @@
         <f>H4*4.4</f>
         <v>92.4</v>
       </c>
+      <c r="J4">
+        <f>I4*1.2</f>
+        <v>110.88000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3162,16 +3174,16 @@
         <v>422</v>
       </c>
       <c r="D5" s="1">
-        <v>123.20000000000002</v>
+        <v>147.84</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F19" si="0">0.8*D5</f>
-        <v>98.560000000000016</v>
+        <v>118.27200000000001</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G19" si="1">0.2*D5</f>
-        <v>24.640000000000004</v>
+        <v>29.568000000000001</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -3180,8 +3192,12 @@
         <f t="shared" ref="I5:I19" si="2">H5*4.4</f>
         <v>123.20000000000002</v>
       </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J44" si="3">I5*1.2</f>
+        <v>147.84</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3189,16 +3205,16 @@
         <v>480</v>
       </c>
       <c r="D6" s="1">
-        <v>140.80000000000001</v>
+        <v>168.96</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>112.64000000000001</v>
+        <v>135.16800000000001</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>28.160000000000004</v>
+        <v>33.792000000000002</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -3207,8 +3223,12 @@
         <f t="shared" si="2"/>
         <v>140.80000000000001</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>168.96</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3216,16 +3236,16 @@
         <v>556</v>
       </c>
       <c r="D7" s="1">
-        <v>167.20000000000002</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>133.76000000000002</v>
+        <v>160.51200000000003</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>33.440000000000005</v>
+        <v>40.128000000000007</v>
       </c>
       <c r="H7">
         <v>38</v>
@@ -3234,8 +3254,12 @@
         <f t="shared" si="2"/>
         <v>167.20000000000002</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>200.64000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3243,16 +3267,16 @@
         <v>652</v>
       </c>
       <c r="D8" s="1">
-        <v>202.4</v>
+        <v>242.88</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>161.92000000000002</v>
+        <v>194.304</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>40.480000000000004</v>
+        <v>48.576000000000001</v>
       </c>
       <c r="H8">
         <v>46</v>
@@ -3261,8 +3285,12 @@
         <f t="shared" si="2"/>
         <v>202.4</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>242.88</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3270,16 +3298,16 @@
         <v>729</v>
       </c>
       <c r="D9" s="1">
-        <v>237.60000000000002</v>
+        <v>285.12</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>190.08000000000004</v>
+        <v>228.096</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>47.52000000000001</v>
+        <v>57.024000000000001</v>
       </c>
       <c r="H9">
         <v>54</v>
@@ -3288,8 +3316,12 @@
         <f t="shared" si="2"/>
         <v>237.60000000000002</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>285.12</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3297,16 +3329,16 @@
         <v>844</v>
       </c>
       <c r="D10" s="1">
-        <v>299.20000000000005</v>
+        <v>359.04</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>239.36000000000004</v>
+        <v>287.23200000000003</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>59.840000000000011</v>
+        <v>71.808000000000007</v>
       </c>
       <c r="H10">
         <v>68</v>
@@ -3315,8 +3347,12 @@
         <f t="shared" si="2"/>
         <v>299.20000000000005</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>359.04</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3324,16 +3360,16 @@
         <v>960</v>
       </c>
       <c r="D11" s="1">
-        <v>374.00000000000006</v>
+        <v>448.80000000000007</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>299.20000000000005</v>
+        <v>359.04000000000008</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>74.800000000000011</v>
+        <v>89.760000000000019</v>
       </c>
       <c r="H11">
         <v>85</v>
@@ -3342,8 +3378,12 @@
         <f t="shared" si="2"/>
         <v>374.00000000000006</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>448.80000000000007</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3351,16 +3391,16 @@
         <v>1036</v>
       </c>
       <c r="D12" s="1">
-        <v>431.20000000000005</v>
+        <v>517.44000000000005</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>344.96000000000004</v>
+        <v>413.95200000000006</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>86.240000000000009</v>
+        <v>103.48800000000001</v>
       </c>
       <c r="H12">
         <v>98</v>
@@ -3369,8 +3409,12 @@
         <f t="shared" si="2"/>
         <v>431.20000000000005</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>517.44000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3378,16 +3422,16 @@
         <v>1113</v>
       </c>
       <c r="D13" s="1">
-        <v>492.80000000000007</v>
+        <v>591.36</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>394.24000000000007</v>
+        <v>473.08800000000002</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>98.560000000000016</v>
+        <v>118.27200000000001</v>
       </c>
       <c r="H13">
         <v>112</v>
@@ -3396,8 +3440,12 @@
         <f t="shared" si="2"/>
         <v>492.80000000000007</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>591.36</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3405,16 +3453,16 @@
         <v>1190</v>
       </c>
       <c r="D14" s="1">
-        <v>558.80000000000007</v>
+        <v>670.56000000000006</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>447.04000000000008</v>
+        <v>536.44800000000009</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>111.76000000000002</v>
+        <v>134.11200000000002</v>
       </c>
       <c r="H14">
         <v>127</v>
@@ -3423,8 +3471,12 @@
         <f t="shared" si="2"/>
         <v>558.80000000000007</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>670.56000000000006</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3432,16 +3484,16 @@
         <v>1228</v>
       </c>
       <c r="D15" s="1">
-        <v>594</v>
+        <v>712.8</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>475.20000000000005</v>
+        <v>570.24</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>118.80000000000001</v>
+        <v>142.56</v>
       </c>
       <c r="H15">
         <v>135</v>
@@ -3450,8 +3502,12 @@
         <f t="shared" si="2"/>
         <v>594</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>712.8</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3459,16 +3515,16 @@
         <v>1324</v>
       </c>
       <c r="D16" s="1">
-        <v>682</v>
+        <v>818.4</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>545.6</v>
+        <v>654.72</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>136.4</v>
+        <v>163.68</v>
       </c>
       <c r="H16">
         <v>155</v>
@@ -3476,6 +3532,10 @@
       <c r="I16">
         <f t="shared" si="2"/>
         <v>682</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>818.4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -3486,16 +3546,16 @@
         <v>1401</v>
       </c>
       <c r="D17" s="1">
-        <v>765.6</v>
+        <v>918.72</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>612.48</v>
+        <v>734.97600000000011</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>153.12</v>
+        <v>183.74400000000003</v>
       </c>
       <c r="H17">
         <v>174</v>
@@ -3503,6 +3563,10 @@
       <c r="I17">
         <f t="shared" si="2"/>
         <v>765.6</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>918.72</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -3513,16 +3577,16 @@
         <v>1478</v>
       </c>
       <c r="D18" s="1">
-        <v>858.00000000000011</v>
+        <v>1029.6000000000001</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>686.40000000000009</v>
+        <v>823.68000000000018</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>171.60000000000002</v>
+        <v>205.92000000000004</v>
       </c>
       <c r="H18">
         <v>195</v>
@@ -3530,6 +3594,10 @@
       <c r="I18">
         <f t="shared" si="2"/>
         <v>858.00000000000011</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1029.6000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -3540,16 +3608,16 @@
         <v>1593</v>
       </c>
       <c r="D19" s="1">
-        <v>994.40000000000009</v>
+        <v>1193.28</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>795.5200000000001</v>
+        <v>954.62400000000002</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>198.88000000000002</v>
+        <v>238.65600000000001</v>
       </c>
       <c r="H19">
         <v>226</v>
@@ -3557,6 +3625,10 @@
       <c r="I19">
         <f t="shared" si="2"/>
         <v>994.40000000000009</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1193.28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3567,27 +3639,27 @@
         <v>307</v>
       </c>
       <c r="D20" s="1">
-        <v>88</v>
+        <v>105.6</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
         <f>D20*0.8</f>
-        <v>70.400000000000006</v>
+        <v>84.48</v>
       </c>
       <c r="G20" s="1">
         <f>D20*0.2</f>
-        <v>17.600000000000001</v>
+        <v>21.12</v>
       </c>
       <c r="H20">
         <v>20</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I44" si="3">0.00000006*B20*B20*B20 - 0.00009*B20*B20 + 0.132*B20 - 16.418</f>
-        <v>17.359656579999999</v>
-      </c>
-      <c r="J20">
         <f>H20*4.4</f>
         <v>88</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>105.6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -3598,27 +3670,27 @@
         <v>403</v>
       </c>
       <c r="D21" s="1">
-        <v>110.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
         <f t="shared" ref="F21:F44" si="4">D21*0.8</f>
-        <v>88.000000000000014</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:G44" si="5">D21*0.2</f>
-        <v>22.000000000000004</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="H21">
         <v>25</v>
       </c>
       <c r="I21">
+        <f>H21*4.4</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="3"/>
-        <v>26.088239620000003</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J45" si="6">H21*4.4</f>
-        <v>110.00000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -3629,27 +3701,27 @@
         <v>480</v>
       </c>
       <c r="D22" s="1">
-        <v>127.60000000000001</v>
+        <v>153.12</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
-        <v>102.08000000000001</v>
+        <v>122.49600000000001</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="5"/>
-        <v>25.520000000000003</v>
+        <v>30.624000000000002</v>
       </c>
       <c r="H22">
         <v>29</v>
       </c>
       <c r="I22">
+        <f>H22*4.4</f>
+        <v>127.60000000000001</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="3"/>
-        <v>32.841519999999996</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
-        <v>127.60000000000001</v>
+        <v>153.12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -3660,27 +3732,27 @@
         <v>556</v>
       </c>
       <c r="D23" s="1">
-        <v>145.20000000000002</v>
+        <v>174.24</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>116.16000000000003</v>
+        <v>139.39200000000002</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="5"/>
-        <v>29.040000000000006</v>
+        <v>34.848000000000006</v>
       </c>
       <c r="H23">
         <v>33</v>
       </c>
       <c r="I23">
+        <f>H23*4.4</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="3"/>
-        <v>39.464536960000011</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="6"/>
-        <v>145.20000000000002</v>
+        <v>174.24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -3691,27 +3763,27 @@
         <v>652</v>
       </c>
       <c r="D24" s="1">
-        <v>189.20000000000002</v>
+        <v>227.04000000000002</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>151.36000000000001</v>
+        <v>181.63200000000003</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="5"/>
-        <v>37.840000000000003</v>
+        <v>45.408000000000008</v>
       </c>
       <c r="H24">
         <v>43</v>
       </c>
       <c r="I24">
+        <f>H24*4.4</f>
+        <v>189.20000000000002</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="3"/>
-        <v>48.016708480000013</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="6"/>
-        <v>189.20000000000002</v>
+        <v>227.04000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -3722,27 +3794,27 @@
         <v>729</v>
       </c>
       <c r="D25" s="1">
-        <v>224.4</v>
+        <v>269.27999999999997</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
-        <v>179.52</v>
+        <v>215.42399999999998</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
-        <v>44.88</v>
+        <v>53.855999999999995</v>
       </c>
       <c r="H25">
         <v>51</v>
       </c>
       <c r="I25">
+        <f>H25*4.4</f>
+        <v>224.4</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="3"/>
-        <v>55.225539340000005</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
-        <v>224.4</v>
+        <v>269.27999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -3753,27 +3825,27 @@
         <v>806</v>
       </c>
       <c r="D26" s="1">
-        <v>264</v>
+        <v>316.8</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
-        <v>211.20000000000002</v>
+        <v>253.44000000000003</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
-        <v>52.800000000000004</v>
+        <v>63.360000000000007</v>
       </c>
       <c r="H26">
         <v>60</v>
       </c>
       <c r="I26">
+        <f>H26*4.4</f>
+        <v>264</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="3"/>
-        <v>62.923156960000007</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="6"/>
-        <v>264</v>
+        <v>316.8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -3784,27 +3856,27 @@
         <v>883</v>
       </c>
       <c r="D27" s="1">
-        <v>308</v>
+        <v>369.59999999999997</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
-        <v>246.4</v>
+        <v>295.68</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="5"/>
-        <v>61.6</v>
+        <v>73.92</v>
       </c>
       <c r="H27">
         <v>70</v>
       </c>
       <c r="I27">
+        <f>H27*4.4</f>
+        <v>308</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="3"/>
-        <v>71.273913219999997</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="6"/>
-        <v>308</v>
+        <v>369.59999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -3815,27 +3887,27 @@
         <v>940</v>
       </c>
       <c r="D28" s="1">
-        <v>334.40000000000003</v>
+        <v>401.28000000000003</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
-        <v>267.52000000000004</v>
+        <v>321.02400000000006</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="5"/>
-        <v>66.88000000000001</v>
+        <v>80.256000000000014</v>
       </c>
       <c r="H28">
         <v>76</v>
       </c>
       <c r="I28">
+        <f>H28*4.4</f>
+        <v>334.40000000000003</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="3"/>
-        <v>77.973039999999997</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="6"/>
-        <v>334.40000000000003</v>
+        <v>401.28000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -3846,27 +3918,27 @@
         <v>1036</v>
       </c>
       <c r="D29" s="1">
-        <v>391.6</v>
+        <v>469.92</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f t="shared" si="4"/>
-        <v>313.28000000000003</v>
+        <v>375.93600000000004</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="5"/>
-        <v>78.320000000000007</v>
+        <v>93.984000000000009</v>
       </c>
       <c r="H29">
         <v>89</v>
       </c>
       <c r="I29">
+        <f>H29*4.4</f>
+        <v>391.6</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="3"/>
-        <v>90.453439360000004</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="6"/>
-        <v>391.6</v>
+        <v>469.92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -3877,27 +3949,27 @@
         <v>1113</v>
       </c>
       <c r="D30" s="1">
-        <v>440.00000000000006</v>
+        <v>528</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <f t="shared" si="4"/>
-        <v>352.00000000000006</v>
+        <v>422.40000000000003</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="5"/>
-        <v>88.000000000000014</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="H30">
         <v>100</v>
       </c>
       <c r="I30">
+        <f>H30*4.4</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="3"/>
-        <v>101.73378381999999</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="6"/>
-        <v>440.00000000000006</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -3908,27 +3980,27 @@
         <v>1190</v>
       </c>
       <c r="D31" s="1">
-        <v>492.80000000000007</v>
+        <v>591.36</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>394.24000000000007</v>
+        <v>473.08800000000002</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="5"/>
-        <v>98.560000000000016</v>
+        <v>118.27200000000001</v>
       </c>
       <c r="H31">
         <v>112</v>
       </c>
       <c r="I31">
+        <f>H31*4.4</f>
+        <v>492.80000000000007</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="3"/>
-        <v>114.32254</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="6"/>
-        <v>492.80000000000007</v>
+        <v>591.36</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -3939,27 +4011,27 @@
         <v>1248</v>
       </c>
       <c r="D32" s="1">
-        <v>545.6</v>
+        <v>654.72</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
         <f t="shared" si="4"/>
-        <v>436.48</v>
+        <v>523.77600000000007</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="5"/>
-        <v>109.12</v>
+        <v>130.94400000000002</v>
       </c>
       <c r="H32">
         <v>124</v>
       </c>
       <c r="I32">
+        <f>H32*4.4</f>
+        <v>545.6</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="3"/>
-        <v>124.76853951999999</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
-        <v>545.6</v>
+        <v>654.72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -3970,27 +4042,27 @@
         <v>1324</v>
       </c>
       <c r="D33" s="1">
-        <v>611.6</v>
+        <v>733.92</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
         <f t="shared" si="4"/>
-        <v>489.28000000000003</v>
+        <v>587.13599999999997</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="5"/>
-        <v>122.32000000000001</v>
+        <v>146.78399999999999</v>
       </c>
       <c r="H33">
         <v>139</v>
       </c>
       <c r="I33">
+        <f>H33*4.4</f>
+        <v>611.6</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="3"/>
-        <v>139.83857344</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
-        <v>611.6</v>
+        <v>733.92</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -4001,27 +4073,27 @@
         <v>1401</v>
       </c>
       <c r="D34" s="1">
-        <v>686.40000000000009</v>
+        <v>823.68000000000006</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
         <f t="shared" si="4"/>
-        <v>549.12000000000012</v>
+        <v>658.94400000000007</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="5"/>
-        <v>137.28000000000003</v>
+        <v>164.73600000000002</v>
       </c>
       <c r="H34">
         <v>156</v>
       </c>
       <c r="I34">
+        <f>H34*4.4</f>
+        <v>686.40000000000009</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="3"/>
-        <v>156.85496205999999</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="6"/>
-        <v>686.40000000000009</v>
+        <v>823.68000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -4032,27 +4104,27 @@
         <v>1478</v>
       </c>
       <c r="D35" s="1">
-        <v>765.6</v>
+        <v>918.72</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
         <f t="shared" si="4"/>
-        <v>612.48</v>
+        <v>734.97600000000011</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="5"/>
-        <v>153.12</v>
+        <v>183.74400000000003</v>
       </c>
       <c r="H35">
         <v>174</v>
       </c>
       <c r="I35">
+        <f>H35*4.4</f>
+        <v>765.6</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="3"/>
-        <v>175.79448112</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="6"/>
-        <v>765.6</v>
+        <v>918.72</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -4063,27 +4135,27 @@
         <v>1555</v>
       </c>
       <c r="D36" s="1">
-        <v>862.40000000000009</v>
+        <v>1034.8800000000001</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
         <f t="shared" si="4"/>
-        <v>689.92000000000007</v>
+        <v>827.90400000000011</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="5"/>
-        <v>172.48000000000002</v>
+        <v>206.97600000000003</v>
       </c>
       <c r="H36">
         <v>196</v>
       </c>
       <c r="I36">
+        <f>H36*4.4</f>
+        <v>862.40000000000009</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="3"/>
-        <v>196.82148249999995</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="6"/>
-        <v>862.40000000000009</v>
+        <v>1034.8800000000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -4094,27 +4166,27 @@
         <v>1632</v>
       </c>
       <c r="D37" s="1">
-        <v>946.00000000000011</v>
+        <v>1135.2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>756.80000000000018</v>
+        <v>908.16000000000008</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>189.20000000000005</v>
+        <v>227.04000000000002</v>
       </c>
       <c r="H37">
         <v>215</v>
       </c>
       <c r="I37">
+        <f>H37*4.4</f>
+        <v>946.00000000000011</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="3"/>
-        <v>220.10031807999999</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="6"/>
-        <v>946.00000000000011</v>
+        <v>1135.2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -4125,27 +4197,27 @@
         <v>1708</v>
       </c>
       <c r="D38" s="1">
-        <v>1056</v>
+        <v>1267.2</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
         <f t="shared" si="4"/>
-        <v>844.80000000000007</v>
+        <v>1013.7600000000001</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="5"/>
-        <v>211.20000000000002</v>
+        <v>253.44000000000003</v>
       </c>
       <c r="H38">
         <v>240</v>
       </c>
       <c r="I38">
+        <f>H38*4.4</f>
+        <v>1056</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="3"/>
-        <v>245.44545471999993</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="6"/>
-        <v>1056</v>
+        <v>1267.2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -4156,27 +4228,27 @@
         <v>1785</v>
       </c>
       <c r="D39" s="1">
-        <v>1166</v>
+        <v>1399.2</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>932.80000000000007</v>
+        <v>1119.3600000000001</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="5"/>
-        <v>233.20000000000002</v>
+        <v>279.84000000000003</v>
       </c>
       <c r="H39">
         <v>265</v>
       </c>
       <c r="I39">
+        <f>H39*4.4</f>
+        <v>1166</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="3"/>
-        <v>273.68644749999987</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="6"/>
-        <v>1166</v>
+        <v>1399.2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -4187,27 +4259,27 @@
         <v>1824</v>
       </c>
       <c r="D40" s="1">
-        <v>1218.8000000000002</v>
+        <v>1462.5600000000002</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
         <f t="shared" si="4"/>
-        <v>975.04000000000019</v>
+        <v>1170.0480000000002</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="5"/>
-        <v>243.76000000000005</v>
+        <v>292.51200000000006</v>
       </c>
       <c r="H40">
         <v>277</v>
       </c>
       <c r="I40">
+        <f>H40*4.4</f>
+        <v>1218.8000000000002</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="3"/>
-        <v>289.02641343999994</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="6"/>
-        <v>1218.8000000000002</v>
+        <v>1462.5600000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -4218,27 +4290,27 @@
         <v>1920</v>
       </c>
       <c r="D41" s="1">
-        <v>1408</v>
+        <v>1689.6</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>1126.4000000000001</v>
+        <v>1351.68</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>281.60000000000002</v>
+        <v>337.92</v>
       </c>
       <c r="H41">
         <v>320</v>
       </c>
       <c r="I41">
+        <f>H41*4.4</f>
+        <v>1408</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="3"/>
-        <v>329.91927999999996</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="6"/>
-        <v>1408</v>
+        <v>1689.6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -4249,27 +4321,27 @@
         <v>1996</v>
       </c>
       <c r="D42" s="1">
-        <v>1584.0000000000002</v>
+        <v>1900.8000000000002</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
         <f t="shared" si="4"/>
-        <v>1267.2000000000003</v>
+        <v>1520.6400000000003</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="5"/>
-        <v>316.80000000000007</v>
+        <v>380.16000000000008</v>
       </c>
       <c r="H42">
         <v>360</v>
       </c>
       <c r="I42">
+        <f>H42*4.4</f>
+        <v>1584.0000000000002</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="3"/>
-        <v>365.61831615999995</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="6"/>
-        <v>1584.0000000000002</v>
+        <v>1900.8000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -4280,27 +4352,27 @@
         <v>2073</v>
       </c>
       <c r="D43" s="1">
-        <v>1724.8000000000002</v>
+        <v>2069.7600000000002</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>1379.8400000000001</v>
+        <v>1655.8080000000002</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="5"/>
-        <v>344.96000000000004</v>
+        <v>413.95200000000006</v>
       </c>
       <c r="H43">
         <v>392</v>
       </c>
       <c r="I43">
+        <f>H43*4.4</f>
+        <v>1724.8000000000002</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="3"/>
-        <v>404.96017101999996</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="6"/>
-        <v>1724.8000000000002</v>
+        <v>2069.7600000000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -4311,27 +4383,27 @@
         <v>2150</v>
       </c>
       <c r="D44" s="1">
-        <v>1993.2000000000003</v>
+        <v>2391.84</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>1594.5600000000004</v>
+        <v>1913.4720000000002</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>398.6400000000001</v>
+        <v>478.36800000000005</v>
       </c>
       <c r="H44">
         <v>453</v>
       </c>
       <c r="I44">
+        <f>H44*4.4</f>
+        <v>1993.2000000000003</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="3"/>
-        <v>447.65949999999998</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="6"/>
-        <v>1993.2000000000003</v>
+        <v>2391.84</v>
       </c>
     </row>
   </sheetData>
